--- a/Testing Spreadsheet v1.0 RegistrationPage.xlsx
+++ b/Testing Spreadsheet v1.0 RegistrationPage.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="254">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -938,6 +938,66 @@
   </si>
   <si>
     <t>A title appears at the top of the page</t>
+  </si>
+  <si>
+    <t>Reg_TConn_15</t>
+  </si>
+  <si>
+    <t>To show that users can directly navigate to all page links contained on registeration page</t>
+  </si>
+  <si>
+    <t>Requirements 4.1.7, 4.1.8, 4.1.9, 4.1.10</t>
+  </si>
+  <si>
+    <t>TCase_27</t>
+  </si>
+  <si>
+    <t>Check that the registeration page displays a title.</t>
+  </si>
+  <si>
+    <t>Check that navigation  links to other pages from registration page is possible</t>
+  </si>
+  <si>
+    <t>Reg_Tproc_27</t>
+  </si>
+  <si>
+    <t>When a link is clicked that the user will be navigated to the correct corrsponding page</t>
+  </si>
+  <si>
+    <t>11103/2015</t>
+  </si>
+  <si>
+    <t>Reg_3</t>
+  </si>
+  <si>
+    <t>Security defect. Allows a user to copy a word password from any other field and paste into confirm password field and vice versa. However, is set up to prevent copy and paste function between password fields.</t>
+  </si>
+  <si>
+    <t>Reg_Tproc_28</t>
+  </si>
+  <si>
+    <t>Reg_Tproc_29</t>
+  </si>
+  <si>
+    <t>Reg_Tproc_30</t>
+  </si>
+  <si>
+    <t>Reg_Tproc_31</t>
+  </si>
+  <si>
+    <t>While on registeration page check that  link to Home Page works correctly</t>
+  </si>
+  <si>
+    <t>While on registeration page check that  link to Order Page works correctly</t>
+  </si>
+  <si>
+    <t>While on registeration page check that  link to Contact Page works correctly</t>
+  </si>
+  <si>
+    <t>While on registeration page check that  link to About Page works correctly</t>
+  </si>
+  <si>
+    <t>While on registeration page check that  link to Login Page works correctly</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1085,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1059,18 +1119,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1178,9 +1226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1213,9 +1258,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1228,7 +1270,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1380,7 +1422,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1500,11 +1542,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="339347304"/>
-        <c:axId val="339338680"/>
+        <c:axId val="304855776"/>
+        <c:axId val="304857736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="339347304"/>
+        <c:axId val="304855776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339338680"/>
+        <c:crossAx val="304857736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1522,7 +1564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339338680"/>
+        <c:axId val="304857736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339347304"/>
+        <c:crossAx val="304855776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1939,11 +1981,9 @@
   <sheetPr>
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2157,7 +2197,7 @@
       <c r="A14" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>215</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2179,6 +2219,20 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2195,8 +2249,8 @@
   </sheetPr>
   <dimension ref="A1:U162"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,7 +2258,7 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
@@ -2213,55 +2267,55 @@
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="41.85546875" style="21" customWidth="1"/>
+    <col min="15" max="15" width="44" style="21" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
     <col min="20" max="20" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="8"/>
@@ -2282,21 +2336,21 @@
       <c r="E2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <v>42074</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>83</v>
       </c>
       <c r="J2" s="22"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
@@ -2321,21 +2375,21 @@
       <c r="E3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <v>42074</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>83</v>
       </c>
       <c r="J3" s="22"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
@@ -2355,34 +2409,34 @@
       <c r="D4" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <v>42074</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="33">
         <v>42074</v>
       </c>
-      <c r="N4" s="28"/>
+      <c r="N4" s="27"/>
       <c r="O4" s="22" t="s">
         <v>199</v>
       </c>
@@ -2401,26 +2455,26 @@
       <c r="D5" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <v>42074</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="28"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="22"/>
       <c r="P5" s="6"/>
     </row>
@@ -2437,26 +2491,26 @@
       <c r="D6" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>42074</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="28"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="22"/>
       <c r="P6" s="6"/>
     </row>
@@ -2473,30 +2527,30 @@
       <c r="D7" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <v>42074</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="27"/>
       <c r="O7" s="22"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>68</v>
       </c>
@@ -2509,27 +2563,27 @@
       <c r="D8" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <v>42074</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="27"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -2544,26 +2598,26 @@
       <c r="D9" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <v>42074</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="22"/>
       <c r="P9" s="6"/>
     </row>
@@ -2580,34 +2634,34 @@
       <c r="D10" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="33">
         <v>42074</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="33">
         <v>42074</v>
       </c>
-      <c r="N10" s="28"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="22" t="s">
         <v>200</v>
       </c>
@@ -2629,26 +2683,26 @@
       <c r="D11" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <v>42074</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
       <c r="O11" s="22"/>
       <c r="P11" s="6"/>
       <c r="T11" t="s">
@@ -2672,26 +2726,26 @@
       <c r="D12" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="33">
         <v>42074</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="22"/>
       <c r="P12" s="6"/>
       <c r="T12" t="s">
@@ -2699,7 +2753,7 @@
       </c>
       <c r="U12" s="20">
         <f>COUNTIF(H4:H91,"*Failed*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -2715,26 +2769,26 @@
       <c r="D13" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <v>42074</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="22"/>
       <c r="P13" s="6"/>
       <c r="T13" t="s">
@@ -2758,26 +2812,26 @@
       <c r="D14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <v>42074</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="22"/>
       <c r="P14" s="6"/>
     </row>
@@ -2794,26 +2848,26 @@
       <c r="D15" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <v>42074</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="22"/>
       <c r="P15" s="6"/>
     </row>
@@ -2830,26 +2884,26 @@
       <c r="D16" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="33">
         <v>42074</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="22"/>
       <c r="P16" s="6"/>
     </row>
@@ -2866,26 +2920,26 @@
       <c r="D17" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <v>42074</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="22"/>
       <c r="P17" s="6"/>
     </row>
@@ -2900,28 +2954,28 @@
         <v>109</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="33">
         <v>42074</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
       <c r="O18" s="22"/>
       <c r="P18" s="6"/>
     </row>
@@ -2938,26 +2992,26 @@
       <c r="D19" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="33">
         <v>42074</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
       <c r="O19" s="22"/>
       <c r="P19" s="6"/>
     </row>
@@ -2977,27 +3031,27 @@
       <c r="E20" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="33">
         <v>42074</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
       <c r="O20" s="22"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>81</v>
       </c>
@@ -3013,24 +3067,34 @@
       <c r="E21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <v>42074</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="26" t="s">
+      <c r="H21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="22"/>
+      <c r="J21" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="N21" s="27"/>
+      <c r="O21" s="22" t="s">
+        <v>244</v>
+      </c>
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="1:21" ht="75" x14ac:dyDescent="0.25">
@@ -3049,24 +3113,24 @@
       <c r="E22" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="33">
         <v>42074</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.25">
@@ -3085,24 +3149,24 @@
       <c r="E23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <v>42074</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3121,24 +3185,24 @@
       <c r="E24" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="33">
         <v>42074</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -3157,16 +3221,16 @@
       <c r="E25" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="38">
         <v>42083</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="25" t="s">
         <v>83</v>
       </c>
       <c r="J25" s="6"/>
@@ -3181,7 +3245,7 @@
       <c r="A26" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>224</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -3193,16 +3257,16 @@
       <c r="E26" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="38">
         <v>42083</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="25" t="s">
         <v>83</v>
       </c>
       <c r="J26" s="6"/>
@@ -3221,7 +3285,7 @@
         <v>222</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>198</v>
@@ -3232,16 +3296,16 @@
       <c r="E27" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="38">
         <v>42083</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="25" t="s">
         <v>83</v>
       </c>
       <c r="J27" s="6"/>
@@ -3259,13 +3323,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="22"/>
-      <c r="E28" s="6"/>
+    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>234</v>
+      </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="6"/>
+      <c r="G28" s="38">
+        <v>42084</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -5195,13 +5278,13 @@
           <x14:formula1>
             <xm:f>Settings!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L7 L9:L10</xm:sqref>
+          <xm:sqref>L2:L7 L21 L9:L10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$D$4:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K7 K9:K14</xm:sqref>
+          <xm:sqref>K2:K7 K21 K9:K14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5226,21 +5309,21 @@
   <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="24" customWidth="1"/>
-    <col min="4" max="5" width="24.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="24" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="2" width="15.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="23" customWidth="1"/>
+    <col min="4" max="5" width="24.140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="23" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5282,7 +5365,7 @@
       <c r="D2" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F2" s="22"/>
@@ -5308,10 +5391,10 @@
       <c r="D3" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
@@ -5333,7 +5416,7 @@
       <c r="D4" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F4" s="22"/>
@@ -5358,7 +5441,7 @@
       <c r="D5" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F5" s="22"/>
@@ -5383,7 +5466,7 @@
       <c r="D6" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F6" s="22"/>
@@ -5408,7 +5491,7 @@
       <c r="D7" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F7" s="22"/>
@@ -5433,7 +5516,7 @@
       <c r="D8" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="22"/>
@@ -5458,7 +5541,7 @@
       <c r="D9" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F9" s="22"/>
@@ -5483,7 +5566,7 @@
       <c r="D10" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F10" s="22"/>
@@ -5508,7 +5591,7 @@
       <c r="D11" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F11" s="22"/>
@@ -5533,7 +5616,7 @@
       <c r="D12" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F12" s="22"/>
@@ -5558,8 +5641,8 @@
       <c r="D13" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>168</v>
+      <c r="E13" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -5583,8 +5666,8 @@
       <c r="D14" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>168</v>
+      <c r="E14" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -5608,8 +5691,8 @@
       <c r="D15" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>168</v>
+      <c r="E15" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -5633,8 +5716,8 @@
       <c r="D16" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>168</v>
+      <c r="E16" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -5658,7 +5741,7 @@
       <c r="D17" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="39" t="s">
         <v>168</v>
       </c>
       <c r="F17" s="22"/>
@@ -5683,8 +5766,8 @@
       <c r="D18" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>168</v>
+      <c r="E18" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -5708,7 +5791,9 @@
       <c r="D19" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -5731,7 +5816,7 @@
       <c r="D20" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="39" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5748,7 +5833,7 @@
       <c r="D21" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="39" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5765,7 +5850,7 @@
       <c r="D22" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="39" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5782,8 +5867,8 @@
       <c r="D23" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>168</v>
+      <c r="E23" s="39" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -5799,8 +5884,8 @@
       <c r="D24" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>168</v>
+      <c r="E24" s="39" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5816,6 +5901,9 @@
       <c r="D25" s="22" t="s">
         <v>229</v>
       </c>
+      <c r="E25" s="39" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
@@ -5830,6 +5918,9 @@
       <c r="D26" s="22" t="s">
         <v>231</v>
       </c>
+      <c r="E26" s="39" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
@@ -5843,6 +5934,94 @@
       </c>
       <c r="D27" s="22" t="s">
         <v>233</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5946,6 +6125,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -6059,12 +6244,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
@@ -6074,6 +6253,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6087,19 +6281,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>